--- a/OntologyFile/fileExel/saveAllFes.xlsx
+++ b/OntologyFile/fileExel/saveAllFes.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\DATN\OntologyFile\fileExel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129B433A-8464-4A43-96BD-C896F2584AEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1664B78E-CA8A-4AC8-9AF9-73D804299737}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="saveAllFes" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5530" uniqueCount="2516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5632" uniqueCount="2517">
   <si>
     <t>Mã lễ hội</t>
   </si>
@@ -7568,6 +7570,9 @@
   </si>
   <si>
     <t>Mã AC3(AC)</t>
+  </si>
+  <si>
+    <t>thị trấn Sông Đốc, Cà Mau</t>
   </si>
 </sst>
 </file>
@@ -8057,10 +8062,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -8419,8 +8427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH1424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K33" workbookViewId="0">
-      <selection activeCell="M33" sqref="M1:M1048576"/>
+    <sheetView topLeftCell="Y711" workbookViewId="0">
+      <selection activeCell="A697" sqref="A697:Y713"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -70751,4 +70759,897 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135109E1-50A7-429F-919D-02D9615F24B5}">
+  <dimension ref="A1:T15"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:T1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2516</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E778DCDA-C1A6-4C92-8B87-D294D0F73D40}">
+  <dimension ref="A1:W18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="4" width="8.7265625" customWidth="1"/>
+    <col min="6" max="7" width="8.7265625" customWidth="1"/>
+    <col min="9" max="10" width="8.7265625" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>